--- a/FLAP (TRY).xlsx
+++ b/FLAP (TRY).xlsx
@@ -6009,6 +6009,9 @@
       <c r="A108" t="str">
         <v xml:space="preserve">    Hedge Dahil Net Yabancı Para Pozisyonu</v>
       </c>
+      <c r="B108">
+        <v>-16229155</v>
+      </c>
       <c r="C108">
         <v>-7295367.763767611</v>
       </c>
